--- a/work/购书清单.xlsx
+++ b/work/购书清单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="224">
   <si>
     <t>书名</t>
   </si>
@@ -806,11 +806,66 @@
     <t>冯超</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>[美]Ina goodfellow伊恩·古德费洛）、[加]Yoshua Bengio（约书亚·本吉奥）等</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[美]Ina goodfellow伊恩·古德费洛）、[加]Yoshua Bengio（约书亚·本吉奥）等</t>
+    <t>Keras深度学习实战</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东尼奥·古利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民邮电出版社</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TensorFlow+Keras深度学习人工智能实践应用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>林大贵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学出版社</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习：基于Keras的Python实践</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 魏贞原</t>
+  </si>
+  <si>
+    <t>电子工业出版社</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型网站技术架构核心原理与案例分析</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李智慧</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子工业出版社</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java多线程编程核心技术</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高洪岩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械工业出版社</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -857,12 +912,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -894,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,11 +982,41 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,895 +1312,758 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="44.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="11" customWidth="1"/>
-    <col min="5" max="1026" width="8.625" style="6" customWidth="1"/>
-    <col min="1027" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="44.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="37.75" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="11" customWidth="1"/>
+    <col min="4" max="1025" width="8.625" style="6" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
+      <c r="A1" s="13"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="40.5">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="22" customFormat="1">
+      <c r="A16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27">
+      <c r="A19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27">
+      <c r="A24" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27">
+      <c r="A26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40.5">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="7" customFormat="1">
+      <c r="A31" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1">
+      <c r="A32" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1">
+      <c r="A33" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="12">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" s="22" customFormat="1">
+      <c r="A34" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="22" customFormat="1">
+      <c r="A39" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="12">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
+    <row r="41" spans="1:5" ht="21" customHeight="1">
+      <c r="A41" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="12">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="12">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="27">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="12">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="12">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="27">
+      <c r="A44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="27">
+      <c r="A45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="27">
+      <c r="A47" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="27">
+      <c r="A48" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="12">
+    <row r="50" spans="1:3" ht="27">
+      <c r="A50" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="27">
+      <c r="A52" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="54">
+      <c r="A53" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="27">
+      <c r="A54" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="40.5">
+      <c r="A55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="27">
+      <c r="A56" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="27">
+      <c r="A58" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="27">
-      <c r="A24" s="12">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="12">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="27">
-      <c r="A27" s="12">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="12">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="12">
-        <v>26</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="12">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    </row>
+    <row r="59" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A59" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="12">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1">
-      <c r="A32" s="12">
-        <v>29</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" s="7" customFormat="1">
-      <c r="A33" s="12">
-        <v>30</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1">
-      <c r="A34" s="12">
-        <v>31</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="12">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="12">
-        <v>33</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="12">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="12">
-        <v>35</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="21" customHeight="1">
-      <c r="A39" s="12">
-        <v>36</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="12">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="12">
-        <v>38</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="27">
-      <c r="A42" s="12">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="27">
-      <c r="A43" s="12">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="12">
-        <v>41</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="27">
-      <c r="A45" s="12">
-        <v>42</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="27">
-      <c r="A46" s="12">
-        <v>43</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="12">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="27">
-      <c r="A48" s="12">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="12">
-        <v>46</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="27">
-      <c r="A50" s="12">
-        <v>47</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="54">
-      <c r="A51" s="12">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="27">
-      <c r="A52" s="12">
-        <v>49</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="40.5">
-      <c r="A53" s="12">
-        <v>50</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="27">
-      <c r="A54" s="12">
-        <v>51</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="12">
-        <v>52</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="27">
-      <c r="A56" s="12">
-        <v>53</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A57" s="12">
-        <v>54</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="12">
-        <v>55</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="12">
-        <v>56</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="12">
-        <v>57</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="12">
-        <v>58</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="12">
-        <v>59</v>
-      </c>
-      <c r="B62" s="3" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="12">
-        <v>60</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="C64" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="12"/>
+      <c r="C65" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C33" r:id="rId1" display="http://search.dangdang.com/?key2=%BB%C6%CE%C4%BC%E1&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
-    <hyperlink ref="D33" r:id="rId2" display="http://search.dangdang.com/?key3=%B5%E7%D7%D3%B9%A4%D2%B5%B3%F6%B0%E6%C9%E7&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
-    <hyperlink ref="C34" r:id="rId3" display="http://search.dangdang.com/?key2=%B7%EB%B3%AC&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
-    <hyperlink ref="D34" r:id="rId4" display="http://search.dangdang.com/?key3=%B5%E7%D7%D3%B9%A4%D2%B5%B3%F6%B0%E6%C9%E7&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
-    <hyperlink ref="D32" r:id="rId5" display="http://search.dangdang.com/?key3=%C8%CB%C3%F1%D3%CA%B5%E7%B3%F6%B0%E6%C9%E7&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
-    <hyperlink ref="C32" r:id="rId6" display="http://search.dangdang.com/?key2=%C3%C0%CD%C5%CB%E3%B7%A8%CD%C5%B6%D3&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
+    <hyperlink ref="B32" r:id="rId1" display="http://search.dangdang.com/?key2=%BB%C6%CE%C4%BC%E1&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
+    <hyperlink ref="C32" r:id="rId2" display="http://search.dangdang.com/?key3=%B5%E7%D7%D3%B9%A4%D2%B5%B3%F6%B0%E6%C9%E7&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
+    <hyperlink ref="B33" r:id="rId3" display="http://search.dangdang.com/?key2=%B7%EB%B3%AC&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
+    <hyperlink ref="C33" r:id="rId4" display="http://search.dangdang.com/?key3=%B5%E7%D7%D3%B9%A4%D2%B5%B3%F6%B0%E6%C9%E7&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
+    <hyperlink ref="C31" r:id="rId5" display="http://search.dangdang.com/?key3=%C8%CB%C3%F1%D3%CA%B5%E7%B3%F6%B0%E6%C9%E7&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
+    <hyperlink ref="B31" r:id="rId6" display="http://search.dangdang.com/?key2=%C3%C0%CD%C5%CB%E3%B7%A8%CD%C5%B6%D3&amp;medium=01&amp;category_path=01.00.00.00.00.00"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
